--- a/published-data/fonds-solidarite/fds-2022-05-20/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-20/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61067</v>
+        <v>61072</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>220927636</v>
+        <v>220955311</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163517</v>
+        <v>163522</v>
       </c>
       <c r="D434" t="n">
         <v>25454</v>
       </c>
       <c r="E434" t="n">
-        <v>710365397</v>
+        <v>710395444</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94557</v>
+        <v>94565</v>
       </c>
       <c r="D435" t="n">
-        <v>12851</v>
+        <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>652172634</v>
+        <v>652238662</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50607</v>
+        <v>50614</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>541330331</v>
+        <v>541393574</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30946</v>
+        <v>30948</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>594970821</v>
+        <v>594998853</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10234</v>
+        <v>10235</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>479385570</v>
+        <v>479568874</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53179</v>
+        <v>53180</v>
       </c>
       <c r="D446" t="n">
         <v>8886</v>
       </c>
       <c r="E446" t="n">
-        <v>117840374</v>
+        <v>117845125</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23860,13 +23860,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="D460" t="n">
         <v>601</v>
       </c>
       <c r="E460" t="n">
-        <v>52562601</v>
+        <v>52762601</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -26257,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3799</v>
+        <v>3800</v>
       </c>
       <c r="D507" t="n">
         <v>699</v>
       </c>
       <c r="E507" t="n">
-        <v>9102060</v>
+        <v>9102747</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D511" t="n">
         <v>161</v>
       </c>
       <c r="E511" t="n">
-        <v>11793478</v>
+        <v>11823184</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -27583,13 +27583,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>12107</v>
+        <v>12108</v>
       </c>
       <c r="D533" t="n">
         <v>2542</v>
       </c>
       <c r="E533" t="n">
-        <v>45490795</v>
+        <v>45500795</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
